--- a/repository/toots_language_stats.xlsx
+++ b/repository/toots_language_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,12 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>xl_ent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -476,14 +480,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>surlykilljoy</t>
+          <t>abitofzen</t>
         </is>
       </c>
     </row>
@@ -494,7 +498,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,97 +512,89 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>monsieur_j67</t>
+          <t>scoub</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>it</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ubatama</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NuOpRadio2</t>
+          <t>ichigaya2016</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>ko</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>tecnoblog</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ru</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>kizhifox</t>
+          <t>NuOpRadio2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tr</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -608,11 +604,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>zh</t>
+          <t>qme</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -622,11 +618,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>zh-CN</t>
+          <t>ru</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -636,16 +632,72 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>tr</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>uk</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>zh</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>265</v>
-      </c>
-      <c r="C13" t="n">
-        <v>37</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>413</v>
+      </c>
+      <c r="C17" t="n">
+        <v>33</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
